--- a/cp/maj-donnees-capacitaire/ig/StructureDefinition-ror-practitionerrole-unit-exercise-mode.xlsx
+++ b/cp/maj-donnees-capacitaire/ig/StructureDefinition-ror-practitionerrole-unit-exercise-mode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-30T16:30:10+00:00</t>
+    <t>2025-07-24T10:13:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp/maj-donnees-capacitaire/ig/StructureDefinition-ror-practitionerrole-unit-exercise-mode.xlsx
+++ b/cp/maj-donnees-capacitaire/ig/StructureDefinition-ror-practitionerrole-unit-exercise-mode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T10:13:48+00:00</t>
+    <t>2025-07-28T08:52:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp/maj-donnees-capacitaire/ig/StructureDefinition-ror-practitionerrole-unit-exercise-mode.xlsx
+++ b/cp/maj-donnees-capacitaire/ig/StructureDefinition-ror-practitionerrole-unit-exercise-mode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T08:52:20+00:00</t>
+    <t>2025-07-28T15:40:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp/maj-donnees-capacitaire/ig/StructureDefinition-ror-practitionerrole-unit-exercise-mode.xlsx
+++ b/cp/maj-donnees-capacitaire/ig/StructureDefinition-ror-practitionerrole-unit-exercise-mode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T15:40:07+00:00</t>
+    <t>2025-07-28T16:05:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
